--- a/medicine/Psychotrope/Eisbock/Eisbock.xlsx
+++ b/medicine/Psychotrope/Eisbock/Eisbock.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La Eisbock est une bière bavaroise de fermentation basse de type Bock. Elle titre entre 8 et 14 % d'alcool.
 Il s'agit d'une bière de saison qui repose sur une congélation partielle lors de la maturation.
@@ -512,9 +524,11 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La naissance de la Eisbock n'est pas historiquement attestée. La tradition orale l'attribue à l'erreur d'un des employés d'une brasserie de Haute-Franconie qui aurait laissé les fûts une nuit dehors. Au petit matin, furieux de voir sa bière gelée, le brasseur aurait contraint son ouvrier à boire le breuvage obtenu en guise de punition, à la surprise des papilles gustatives du condamné[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La naissance de la Eisbock n'est pas historiquement attestée. La tradition orale l'attribue à l'erreur d'un des employés d'une brasserie de Haute-Franconie qui aurait laissé les fûts une nuit dehors. Au petit matin, furieux de voir sa bière gelée, le brasseur aurait contraint son ouvrier à boire le breuvage obtenu en guise de punition, à la surprise des papilles gustatives du condamné.
 </t>
         </is>
       </c>
@@ -543,7 +557,9 @@
           <t>Brassage</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le brassage a lieu comme celui d'une Bock, en particulier selon le Reinheitsgebot (loi allemande sur la « pureté » de la bière).
 La différence consiste en une congélation partielle de la bière pendant la maturation. La glace est ensuite retirée ; un jus plus concentré en alcool et plus fort en goût est récupéré.
